--- a/ОписаниеИзменений/Описание изменений по форме/0006_Доработки документов для отражения в них информации о распределении.xlsx
+++ b/ОписаниеИзменений/Описание изменений по форме/0006_Доработки документов для отражения в них информации о распределении.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\IGS_BSO\ОписаниеИзменений\Описание изменений по форме\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DD6108-0996-42D2-A381-5C4FE5F82B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED357D3-71D9-4B55-A0F9-590651BD83AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>Дата изменения</t>
   </si>
@@ -111,9 +111,6 @@
     <t>ОбработкаПроведения() - добавлено движение по регистру "игсОбъектыРаспределенияАмортизацииОсновныхСредств"</t>
   </si>
   <si>
-    <t>ФормаДоумента</t>
-  </si>
-  <si>
     <t>ПриСозданииНаСервере() - процедура расширена и теперь вызывает игсНастроитьФорму()</t>
   </si>
   <si>
@@ -168,13 +165,16 @@
     <t xml:space="preserve">Подсистема игсНовыеОбъектыМетаданных </t>
   </si>
   <si>
-    <t xml:space="preserve">игсМодифицированныеОбъектыМетаданных </t>
-  </si>
-  <si>
     <t>Включены объекты: РегистрСведений.игсОбъектыРаспределенияАмортизацииОсновныхСредств</t>
   </si>
   <si>
     <t>Включены объекты: Документ.ПеремещениеОС, Документ.ПринятиеКУчетуОС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подсистема: игсМодифицированныеОбъектыМетаданных </t>
+  </si>
+  <si>
+    <t>ФормаДокумента</t>
   </si>
 </sst>
 </file>
@@ -261,7 +261,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -284,11 +284,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -302,22 +339,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -326,26 +360,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -359,31 +393,40 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -666,21 +709,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA997"/>
+  <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54" style="7" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="112" style="7" customWidth="1"/>
-    <col min="6" max="26" width="8.7109375" style="7" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="7"/>
+    <col min="1" max="1" width="54" style="6" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="55.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="112" style="6" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" style="6" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -715,10 +758,10 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="21">
         <v>45929</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -747,10 +790,10 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -779,10 +822,10 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -811,10 +854,10 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -843,10 +886,10 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -875,10 +918,10 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>6</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -907,8 +950,8 @@
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -937,10 +980,10 @@
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -969,10 +1012,10 @@
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1001,10 +1044,10 @@
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1058,11 +1101,11 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1088,13 +1131,13 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="1"/>
@@ -1121,13 +1164,13 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>23</v>
+    <row r="15" spans="1:26" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>41</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="s">
-        <v>24</v>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1153,18 +1196,16 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>25</v>
+    <row r="16" spans="1:26" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>43</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>26</v>
+      <c r="B16" s="13"/>
+      <c r="C16" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1187,13 +1228,15 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="6" t="s">
-        <v>20</v>
+    <row r="17" spans="1:27" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>45</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>27</v>
+      <c r="B17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1219,13 +1262,15 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26" t="s">
-        <v>28</v>
+    <row r="18" spans="1:27" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>48</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>29</v>
+      <c r="B18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1251,16 +1296,17 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="6" t="s">
-        <v>30</v>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>25</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="B19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1280,18 +1326,16 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-    </row>
-    <row r="20" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="6" t="s">
-        <v>31</v>
+    </row>
+    <row r="20" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1312,16 +1356,15 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="6" t="s">
-        <v>32</v>
+    <row r="21" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1342,16 +1385,15 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="6" t="s">
-        <v>33</v>
+    <row r="22" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1372,13 +1414,15 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27" t="s">
-        <v>34</v>
+    <row r="23" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="13" t="s">
+        <v>49</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="C23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="11"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1401,16 +1445,20 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="28" t="s">
-        <v>35</v>
+      <c r="A24" s="32"/>
+      <c r="B24" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1432,14 +1480,17 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="28" t="s">
-        <v>36</v>
+      <c r="A25" s="32"/>
+      <c r="B25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1461,14 +1512,17 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="28" t="s">
-        <v>37</v>
+      <c r="A26" s="32"/>
+      <c r="B26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1489,15 +1543,18 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="28" t="s">
-        <v>38</v>
+    <row r="27" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1518,20 +1575,17 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>39</v>
+    <row r="28" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="13" t="s">
+        <v>49</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>40</v>
+      <c r="C28" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1552,18 +1606,17 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="26" t="s">
-        <v>20</v>
+    <row r="29" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="13" t="s">
+        <v>49</v>
       </c>
-      <c r="C29" s="31" t="s">
-        <v>27</v>
+      <c r="C29" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1584,16 +1637,17 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="28" t="s">
-        <v>38</v>
+    <row r="30" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="33"/>
+      <c r="B30" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1614,11 +1668,15 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="28" t="s">
-        <v>34</v>
+    <row r="31" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1643,15 +1701,18 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="28" t="s">
-        <v>35</v>
+    <row r="32" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1672,15 +1733,18 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="28" t="s">
-        <v>41</v>
+    <row r="33" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="32"/>
+      <c r="B33" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1701,15 +1765,18 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="28" t="s">
-        <v>36</v>
+    <row r="34" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="32"/>
+      <c r="B34" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1730,18 +1797,17 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
-        <v>42</v>
+    <row r="35" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
+      <c r="B35" s="13" t="s">
+        <v>49</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31" t="s">
-        <v>43</v>
+      <c r="C35" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1762,18 +1828,17 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
-        <v>44</v>
+    <row r="36" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
+      <c r="B36" s="13" t="s">
+        <v>49</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31" t="s">
-        <v>45</v>
+      <c r="C36" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1794,20 +1859,17 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>46</v>
+    <row r="37" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="33"/>
+      <c r="B37" s="13" t="s">
+        <v>49</v>
       </c>
-      <c r="B37" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>48</v>
+      <c r="C37" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1829,19 +1891,16 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>47</v>
+      <c r="A38" s="5" t="s">
+        <v>23</v>
       </c>
-      <c r="B38" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>49</v>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1863,9 +1922,6 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="10"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1891,9 +1947,6 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1919,9 +1972,6 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1947,9 +1997,6 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1975,9 +2022,9 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2003,9 +2050,9 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2031,9 +2078,9 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2059,9 +2106,9 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2087,11 +2134,11 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="8"/>
+      <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -2115,9 +2162,9 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2143,9 +2190,9 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2171,9 +2218,9 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2199,11 +2246,11 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="E51" s="7"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2227,9 +2274,9 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2255,9 +2302,9 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2283,9 +2330,9 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -28714,23 +28761,133 @@
       <c r="Y997" s="1"/>
       <c r="Z997" s="1"/>
     </row>
+    <row r="998" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A998" s="1"/>
+      <c r="B998" s="1"/>
+      <c r="C998" s="1"/>
+      <c r="D998" s="1"/>
+      <c r="E998" s="1"/>
+      <c r="F998" s="1"/>
+      <c r="G998" s="1"/>
+      <c r="H998" s="1"/>
+      <c r="I998" s="1"/>
+      <c r="J998" s="1"/>
+      <c r="K998" s="1"/>
+      <c r="L998" s="1"/>
+      <c r="M998" s="1"/>
+      <c r="N998" s="1"/>
+      <c r="O998" s="1"/>
+      <c r="P998" s="1"/>
+      <c r="Q998" s="1"/>
+      <c r="R998" s="1"/>
+      <c r="S998" s="1"/>
+      <c r="T998" s="1"/>
+      <c r="U998" s="1"/>
+      <c r="V998" s="1"/>
+      <c r="W998" s="1"/>
+      <c r="X998" s="1"/>
+      <c r="Y998" s="1"/>
+      <c r="Z998" s="1"/>
+    </row>
+    <row r="999" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A999" s="1"/>
+      <c r="B999" s="1"/>
+      <c r="C999" s="1"/>
+      <c r="D999" s="1"/>
+      <c r="E999" s="1"/>
+      <c r="F999" s="1"/>
+      <c r="G999" s="1"/>
+      <c r="H999" s="1"/>
+      <c r="I999" s="1"/>
+      <c r="J999" s="1"/>
+      <c r="K999" s="1"/>
+      <c r="L999" s="1"/>
+      <c r="M999" s="1"/>
+      <c r="N999" s="1"/>
+      <c r="O999" s="1"/>
+      <c r="P999" s="1"/>
+      <c r="Q999" s="1"/>
+      <c r="R999" s="1"/>
+      <c r="S999" s="1"/>
+      <c r="T999" s="1"/>
+      <c r="U999" s="1"/>
+      <c r="V999" s="1"/>
+      <c r="W999" s="1"/>
+      <c r="X999" s="1"/>
+      <c r="Y999" s="1"/>
+      <c r="Z999" s="1"/>
+    </row>
+    <row r="1000" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1000" s="1"/>
+      <c r="B1000" s="1"/>
+      <c r="C1000" s="1"/>
+      <c r="D1000" s="1"/>
+      <c r="E1000" s="1"/>
+      <c r="F1000" s="1"/>
+      <c r="G1000" s="1"/>
+      <c r="H1000" s="1"/>
+      <c r="I1000" s="1"/>
+      <c r="J1000" s="1"/>
+      <c r="K1000" s="1"/>
+      <c r="L1000" s="1"/>
+      <c r="M1000" s="1"/>
+      <c r="N1000" s="1"/>
+      <c r="O1000" s="1"/>
+      <c r="P1000" s="1"/>
+      <c r="Q1000" s="1"/>
+      <c r="R1000" s="1"/>
+      <c r="S1000" s="1"/>
+      <c r="T1000" s="1"/>
+      <c r="U1000" s="1"/>
+      <c r="V1000" s="1"/>
+      <c r="W1000" s="1"/>
+      <c r="X1000" s="1"/>
+      <c r="Y1000" s="1"/>
+      <c r="Z1000" s="1"/>
+    </row>
+    <row r="1001" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1001" s="1"/>
+      <c r="B1001" s="1"/>
+      <c r="C1001" s="1"/>
+      <c r="D1001" s="1"/>
+      <c r="E1001" s="1"/>
+      <c r="F1001" s="1"/>
+      <c r="G1001" s="1"/>
+      <c r="H1001" s="1"/>
+      <c r="I1001" s="1"/>
+      <c r="J1001" s="1"/>
+      <c r="K1001" s="1"/>
+      <c r="L1001" s="1"/>
+      <c r="M1001" s="1"/>
+      <c r="N1001" s="1"/>
+      <c r="O1001" s="1"/>
+      <c r="P1001" s="1"/>
+      <c r="Q1001" s="1"/>
+      <c r="R1001" s="1"/>
+      <c r="S1001" s="1"/>
+      <c r="T1001" s="1"/>
+      <c r="U1001" s="1"/>
+      <c r="V1001" s="1"/>
+      <c r="W1001" s="1"/>
+      <c r="X1001" s="1"/>
+      <c r="Y1001" s="1"/>
+      <c r="Z1001" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B18:B27"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="B7:C7"/>
+  <mergeCells count="13">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A19:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
